--- a/progress tracker.xlsx
+++ b/progress tracker.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4DA82427541F7ACA7EB87B888E17F86AE8DE10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574DD9E4-F2CD-4024-9604-C1A880664793}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NU\DS5110\final project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DFF6BC-0BB0-4CE6-8ACC-1565031DD1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Deliverable</t>
   </si>
@@ -73,18 +78,12 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
     <t xml:space="preserve">Week 5: Working on extracting our data, creating queries and meaningful visualizations. </t>
   </si>
   <si>
     <t>11/1 - 11/8</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 6: Install Apache Spark and attempt to implement our database system there. </t>
-  </si>
-  <si>
     <t>11/9 - 11/16</t>
   </si>
   <si>
@@ -92,13 +91,17 @@
   </si>
   <si>
     <t>11/17 - 11/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 6: Install MySQL and attempt to implement our database system there. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +117,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +135,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,16 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,7 +171,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,15 +460,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -477,84 +478,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>